--- a/DateBase/orders/Nha Thu_2024-10-29.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-29.xlsx
@@ -647,6 +647,9 @@
       <c r="C26" t="str">
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F26" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="C27" t="str">
@@ -733,7 +736,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>088977101010205554447553310101020000000</v>
+        <v>088977101010205554447553310101020100000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-29.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-29.xlsx
@@ -648,7 +648,7 @@
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F26" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -736,7 +736,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>088977101010205554447553310101020100000</v>
+        <v>0889771010102055544475533101010201000000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-29.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-29.xlsx
@@ -655,6 +655,9 @@
       <c r="C27" t="str">
         <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F27" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="C28" t="str">
@@ -736,7 +739,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0889771010102055544475533101010201000000</v>
+        <v>0889771010102055544475533101010201010000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-29.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-29.xlsx
@@ -656,7 +656,7 @@
         <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F27" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -739,7 +739,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0889771010102055544475533101010201010000</v>
+        <v>08897710101020555444755331010102010100000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-29.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-29.xlsx
@@ -663,6 +663,9 @@
       <c r="C28" t="str">
         <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F28" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="C29" t="str">
@@ -739,7 +742,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>08897710101020555444755331010102010100000</v>
+        <v>08897710101020555444755331010102010101000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-29.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-29.xlsx
@@ -664,7 +664,7 @@
         <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F28" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -742,7 +742,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>08897710101020555444755331010102010101000</v>
+        <v>088977101010205554447553310101020101010000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-29.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-29.xlsx
@@ -671,6 +671,9 @@
       <c r="C29" t="str">
         <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F29" t="str">
+        <v>6</v>
+      </c>
     </row>
     <row r="30">
       <c r="C30" t="str">
@@ -742,7 +745,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>088977101010205554447553310101020101010000</v>
+        <v>088977101010205554447553310101020101010600</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-29.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-29.xlsx
@@ -679,6 +679,9 @@
       <c r="C30" t="str">
         <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F30" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="C31" t="str">
@@ -745,7 +748,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>088977101010205554447553310101020101010600</v>
+        <v>088977101010205554447553310101020101010610</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-29.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-29.xlsx
@@ -687,6 +687,9 @@
       <c r="C31" t="str">
         <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F31" t="str">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -748,7 +751,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0889771010102055544475533101010201010106100</v>
+        <v>0889771010102055544475533101010201010106106</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-29.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-29.xlsx
@@ -680,7 +680,7 @@
         <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F30" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -748,7 +748,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>088977101010205554447553310101020101010610</v>
+        <v>0889771010102055544475533101010201010106100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-29.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-29.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -691,9 +691,116 @@
         <v>6</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>363_转运竹_lucky bamboo_Dracaena sanderiana_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>111_绣球单瓣紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F33" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>643_巧克力秋英_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>526_大刺秦_Eryngium_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>84_堪培拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>479_绿铃草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>4</v>
+      </c>
+      <c r="C40" t="str">
+        <v>445_冬青_ilex_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>445_冬青_ilex_undefined_1bunch</v>
+      </c>
+      <c r="F41" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>5</v>
+      </c>
+      <c r="C42" t="str">
+        <v>665_大丽花 慕斯_undefined_undefined_5stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>667_大丽花 安吉丽娜_undefined_undefined_5stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L44"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -751,7 +858,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0889771010102055544475533101010201010106106</v>
+        <v>0889771010102055544475533101010201010106106320651010101010610100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-29.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-29.xlsx
@@ -797,6 +797,9 @@
       <c r="C44" t="str">
         <v>586_洋牡丹白_undefined_undefined_1bunch</v>
       </c>
+      <c r="F44" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -858,7 +861,10 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0889771010102055544475533101010201010106106320651010101010610100</v>
+        <v>08897710101020555444755331010102010101061063206510101010106101010</v>
+      </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
       </c>
     </row>
   </sheetData>
